--- a/data/excel/Skill.xlsx
+++ b/data/excel/Skill.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>cs</t>
   </si>
@@ -90,6 +90,12 @@
     <t>TargetType</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -126,25 +132,34 @@
     <t>目标选择类型</t>
   </si>
   <si>
+    <t>伤害量</t>
+  </si>
+  <si>
+    <t>治疗量</t>
+  </si>
+  <si>
     <t>近战武器技能</t>
   </si>
   <si>
-    <t>平砍</t>
+    <t>近战攻击</t>
   </si>
   <si>
     <t>远程物理武器</t>
   </si>
   <si>
-    <t>平射</t>
+    <t>远程攻击</t>
   </si>
   <si>
     <t>远程魔法武器</t>
   </si>
   <si>
+    <t>魔法攻击</t>
+  </si>
+  <si>
     <t>治疗武器</t>
   </si>
   <si>
-    <t>平治</t>
+    <t>普通治疗</t>
   </si>
 </sst>
 </file>
@@ -1123,25 +1138,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="15.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="10.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="16.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="15.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="15.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="12.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="12.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,8 +1184,14 @@
       <c r="I1" t="s">
         <v>0</v>
       </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1195,74 +1219,92 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -1273,19 +1315,25 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>2400</v>
+      </c>
       <c r="I5">
         <v>2</v>
       </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1296,19 +1344,25 @@
       <c r="G6" t="b">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>2800</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1319,19 +1373,25 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -1342,8 +1402,14 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>3200</v>
+      </c>
       <c r="I8">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
